--- a/docentes/Ameca Garcia Ivan - Estadisticos 20242.xlsx
+++ b/docentes/Ameca Garcia Ivan - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="99">
   <si>
     <t>Mat</t>
   </si>
@@ -85,244 +85,235 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ARMAS</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
     <t>CHICO</t>
   </si>
   <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MORALES</t>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
   </si>
   <si>
     <t>BAUTISTA</t>
   </si>
   <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>DORANTES</t>
+  </si>
+  <si>
     <t>BERNABE</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>LEYVA</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>PELLICO</t>
   </si>
   <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>MORA</t>
   </si>
   <si>
     <t>ZOPIYACTLE</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>PICHARDO</t>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>LAGUNA</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CHAPARRO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>LIBRADO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>JOSE GUSTAVO</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>DEREK</t>
+  </si>
+  <si>
+    <t>MAYRIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>YARETZY NAOMI</t>
+  </si>
+  <si>
+    <t>DANIELA LILI</t>
+  </si>
+  <si>
+    <t>ALIN MARIEL</t>
+  </si>
+  <si>
+    <t>DIEGO ARMANDO</t>
+  </si>
+  <si>
+    <t>URIEL ARTURO</t>
+  </si>
+  <si>
+    <t>LEVI SANTIAGO</t>
+  </si>
+  <si>
+    <t>YARETH</t>
+  </si>
+  <si>
+    <t>JOSE ABEL</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO</t>
+  </si>
+  <si>
+    <t>LUZ ELENA</t>
+  </si>
+  <si>
+    <t>ERIKA VALERIA</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>SERGIO JOSUE</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>JOHANA</t>
+  </si>
+  <si>
+    <t>MAYKA XIMENA</t>
+  </si>
+  <si>
+    <t>EUNICE GUADALUPE</t>
+  </si>
+  <si>
+    <t>BERNARDINA</t>
+  </si>
+  <si>
+    <t>SABDY</t>
+  </si>
+  <si>
+    <t>ARMANDO GABRIEL</t>
+  </si>
+  <si>
+    <t>LUIS FABIAN</t>
   </si>
   <si>
     <t>SANTIAGO</t>
   </si>
   <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>ESCOBAR</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>CAMACHO</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>AUTRAN</t>
-  </si>
-  <si>
-    <t>LAGUNA</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>CHAPARRO</t>
-  </si>
-  <si>
-    <t>LIBRADO</t>
-  </si>
-  <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>YARETH</t>
-  </si>
-  <si>
-    <t>YOSGART</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>LUZ ELENA</t>
-  </si>
-  <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
-    <t>EUNICE GUADALUPE</t>
-  </si>
-  <si>
-    <t>IRVING JESUS</t>
-  </si>
-  <si>
-    <t>BENJAMIN</t>
-  </si>
-  <si>
-    <t>AXEL AARON</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>SABDY</t>
-  </si>
-  <si>
-    <t>SERGIO JOSUE</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>MAYKA XIMENA</t>
-  </si>
-  <si>
-    <t>BERNARDINA</t>
+    <t>EMIRETH</t>
+  </si>
+  <si>
+    <t>BRENDA</t>
   </si>
   <si>
     <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>YURANI</t>
-  </si>
-  <si>
-    <t>JANNIHA YUVIETH</t>
-  </si>
-  <si>
-    <t>JIMENA</t>
-  </si>
-  <si>
-    <t>ANDY ARELY</t>
-  </si>
-  <si>
-    <t>ARMANDO GABRIEL</t>
-  </si>
-  <si>
-    <t>TRISTAN YABAL</t>
-  </si>
-  <si>
-    <t>LUIS FABIAN</t>
-  </si>
-  <si>
-    <t>CARMEN STEFANY</t>
-  </si>
-  <si>
-    <t>ADOLFO</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
-  </si>
-  <si>
-    <t>EMIRETH</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
-  </si>
-  <si>
-    <t>JHOCELIN VALENTINA</t>
-  </si>
-  <si>
-    <t>MARIA ESTELA</t>
   </si>
 </sst>
 </file>
@@ -778,10 +769,10 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -790,7 +781,7 @@
         <v>69.56999999999999</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -859,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>31.58</v>
+        <v>36.84</v>
       </c>
       <c r="H7">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -924,16 +915,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>72.22</v>
+      </c>
+      <c r="H2">
+        <v>5.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -970,16 +964,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>78.26000000000001</v>
+      </c>
+      <c r="H4">
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -993,16 +990,19 @@
         <v>30</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1016,16 +1016,19 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1039,16 +1042,19 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>52.63</v>
+      </c>
+      <c r="H7">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -1107,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>52.78</v>
+        <v>72.22</v>
       </c>
       <c r="H2">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1156,19 +1162,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>69.56999999999999</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1185,16 +1191,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>56.67</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1211,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1237,16 +1243,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>52.63</v>
+      </c>
+      <c r="H7">
         <v>6</v>
-      </c>
-      <c r="G7">
-        <v>31.58</v>
-      </c>
-      <c r="H7">
-        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1291,16 +1297,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920098</v>
+        <v>24330051920304</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1314,16 +1320,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920148</v>
+        <v>24330051920305</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1337,16 +1343,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920106</v>
+        <v>24330051920113</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1360,16 +1366,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920244</v>
+        <v>24330051920389</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1383,7 +1389,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920243</v>
+        <v>24330051920247</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1392,7 +1398,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1406,16 +1412,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920226</v>
+        <v>24330051920330</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1429,22 +1435,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920256</v>
+        <v>24330051920246</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1452,22 +1458,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920188</v>
+        <v>23330051920211</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1475,7 +1481,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920206</v>
+        <v>24330051920093</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1484,21 +1490,21 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>23330051920190</v>
+        <v>24330051920392</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -1507,122 +1513,122 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>22330051920389</v>
+        <v>24330051920098</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>23330051920329</v>
+        <v>24330051920144</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>23330051920332</v>
+        <v>24330051920143</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>23330051920186</v>
+        <v>24330051920244</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>24330051920220</v>
+        <v>24330051920238</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1636,22 +1642,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>24330051920232</v>
+        <v>22330051920389</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1659,22 +1665,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>24330051920242</v>
+        <v>23330051920332</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1682,131 +1688,131 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>24330051920181</v>
+        <v>23330051920224</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>24330051920388</v>
+        <v>24330051920243</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>24330051920316</v>
+        <v>24330051920220</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>24330051920028</v>
+        <v>24330051920226</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>23330051920324</v>
+        <v>24330051920232</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>22330051920196</v>
+        <v>23330051920329</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1815,21 +1821,21 @@
         <v>15</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>23330051920203</v>
+        <v>23330051920324</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1838,27 +1844,27 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>24330051920313</v>
+        <v>23330051920203</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1866,62 +1872,62 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>24330051920303</v>
+        <v>24330051920396</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>23330051920343</v>
+        <v>24330051920408</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>24330051920396</v>
+        <v>24330051920229</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1930,18 +1936,18 @@
         <v>11</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>24330051920408</v>
+        <v>24330051920242</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
         <v>98</v>
@@ -1953,99 +1959,7 @@
         <v>11</v>
       </c>
       <c r="G30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>24330051920229</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>24330051920179</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>23330051920076</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>23330051920179</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Ameca Garcia Ivan - Estadisticos 20242.xlsx
+++ b/docentes/Ameca Garcia Ivan - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>Mat</t>
   </si>
@@ -94,63 +94,45 @@
     <t>RAMOS</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
     <t>ZUNO</t>
   </si>
   <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
     <t>ARIAS</t>
   </si>
   <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>CERON</t>
   </si>
   <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>DORANTES</t>
   </si>
   <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>LEYVA</t>
   </si>
   <si>
-    <t>PELLICO</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
@@ -163,15 +145,6 @@
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
     <t>SALINAS</t>
   </si>
   <si>
@@ -181,7 +154,7 @@
     <t>DE LA CRUZ</t>
   </si>
   <si>
-    <t>PINO</t>
+    <t>REYES</t>
   </si>
   <si>
     <t>CARRILLO</t>
@@ -190,30 +163,27 @@
     <t>SARMIENTO</t>
   </si>
   <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>LAGUNA</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>MEZA</t>
-  </si>
-  <si>
-    <t>LAGUNA</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
     <t>PORRAS</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
     <t>CHAPARRO</t>
   </si>
   <si>
@@ -238,63 +208,48 @@
     <t>DEREK</t>
   </si>
   <si>
-    <t>MAYRIN GUADALUPE</t>
-  </si>
-  <si>
-    <t>YARETZY NAOMI</t>
-  </si>
-  <si>
     <t>DANIELA LILI</t>
   </si>
   <si>
     <t>ALIN MARIEL</t>
   </si>
   <si>
+    <t>ERWIN ISRAEL</t>
+  </si>
+  <si>
     <t>DIEGO ARMANDO</t>
   </si>
   <si>
     <t>URIEL ARTURO</t>
   </si>
   <si>
+    <t>YARETH</t>
+  </si>
+  <si>
+    <t>JOSE ABEL</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>SERGIO JOSUE</t>
+  </si>
+  <si>
     <t>LEVI SANTIAGO</t>
   </si>
   <si>
-    <t>YARETH</t>
-  </si>
-  <si>
-    <t>JOSE ABEL</t>
-  </si>
-  <si>
-    <t>CARLOS ANTONIO</t>
-  </si>
-  <si>
-    <t>LUZ ELENA</t>
-  </si>
-  <si>
-    <t>ERIKA VALERIA</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>SERGIO JOSUE</t>
-  </si>
-  <si>
     <t>ROBERTO</t>
   </si>
   <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
     <t>MAYKA XIMENA</t>
   </si>
   <si>
     <t>EUNICE GUADALUPE</t>
   </si>
   <si>
-    <t>BERNARDINA</t>
-  </si>
-  <si>
     <t>SABDY</t>
   </si>
   <si>
@@ -305,15 +260,6 @@
   </si>
   <si>
     <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>EMIRETH</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
   </si>
 </sst>
 </file>
@@ -941,16 +887,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>78.56999999999999</v>
+      </c>
+      <c r="H3">
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1139,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>42.86</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H3">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1262,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1303,10 +1252,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1326,10 +1275,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1349,10 +1298,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1366,16 +1315,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920389</v>
+        <v>24330051920330</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1389,16 +1338,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920247</v>
+        <v>24330051920246</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1412,22 +1361,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920330</v>
+        <v>24330051920393</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1435,22 +1384,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920246</v>
+        <v>23330051920211</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1458,39 +1407,39 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>23330051920211</v>
+        <v>24330051920093</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920093</v>
+        <v>24330051920098</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1504,16 +1453,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920392</v>
+        <v>24330051920144</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1527,16 +1476,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>24330051920098</v>
+        <v>24330051920143</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1550,22 +1499,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>24330051920144</v>
+        <v>22330051920389</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1573,22 +1522,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>24330051920143</v>
+        <v>23330051920332</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1596,114 +1545,114 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>24330051920244</v>
+        <v>24330051920392</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>24330051920238</v>
+        <v>23330051920224</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>22330051920389</v>
+        <v>24330051920220</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>23330051920332</v>
+        <v>24330051920226</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>23330051920224</v>
+        <v>23330051920329</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1711,22 +1660,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>24330051920243</v>
+        <v>23330051920324</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1734,22 +1683,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>24330051920220</v>
+        <v>23330051920203</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1757,16 +1706,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>24330051920226</v>
+        <v>24330051920396</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1775,190 +1724,6 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>24330051920232</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23330051920329</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>23330051920324</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>23330051920203</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>24330051920396</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>24330051920408</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>24330051920229</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>24330051920242</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30">
         <v>1</v>
       </c>
     </row>
